--- a/samples/SA-عينة-محلات-ملابس-preview.xlsx
+++ b/samples/SA-عينة-محلات-ملابس-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="360">
   <si>
     <t>GoogleMaps URL</t>
   </si>
@@ -40,331 +40,34 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A8%D8%A7%D9%8A%D8%A7+%D9%84%D9%84%D8%A7%D8%B2%D9%8A%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15e80aed2217dbd5:0xbacffec045b8a9ca!8m2!3d20.1507541!4d40.2803823!16s%2Fg%2F11gfh8wm0b!19sChIJ1dsXIu0K6BURyqm4RcD-z7o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D9%84%D8%B3%D8%A7%D9%86+%D9%84%D9%84%D8%A7%D8%AD%D8%B0%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0383c59f0da5:0x3bcf836202716794!8m2!3d24.7195812!4d46.6707363!16s%2Fg%2F11r_wrybtn!19sChIJpQ2fxYMDLz4RlGdxAmKDzzs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/REDTAG/data=!4m7!3m6!1s0x3e4a00093602d40b:0x2eea7ae418286c89!8m2!3d26.5572642!4d50.0381446!16s%2Fg%2F11b6nz58yl!19sChIJC9QCNgkASj4RiWwoGOR66i4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%B1%D9%88%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D8%AD%D8%A7%D8%B6%D8%B1+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0509a212f9f1:0x64f446944b9da1a9!8m2!3d24.6296026!4d46.7070361!16s%2Fg%2F11ggsnpw80!19sChIJ8fkSogkFLz4RqaGdS5RG9GQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Skechers+-+Galleria+Mall/data=!4m7!3m6!1s0x3e350f19fc048a43:0x45f8c6a94e39e38d!8m2!3d27.137569!4d49.5681659!16s%2Fg%2F11t4y09snw!19sChIJQ4oE_BkPNT4RjeM5TqnG-EU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B9%D8%B1%D8%B6+%D9%83%D8%B4%D8%AE%D8%A9+%D8%A7%D9%84%D8%B3%D8%AA%D9%8A%D9%86+%D9%85%D9%83%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c21bf4e10d291b:0xfdee7788693e8e60!8m2!3d21.4366408!4d39.7898038!16s%2Fg%2F11ghq3qfwm!19sChIJGykN4fQbwhURYI4-aYh37v0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A3%D8%B3%D8%B1%D8%A7%D8%B1+%D8%A7%D9%84%D8%BA%D8%B1%D8%A8%D9%8A%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05b024f64073:0x386e9a274ba11e71!8m2!3d24.6381163!4d46.7195234!16s%2Fg%2F11hd9l6c1d!19sChIJc0D2JLAFLz4RcR6hSyeabjg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Top+one+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D9%8A%D8%A6%D8%A9+%D9%88%D8%A7%D9%84%D8%A7%D9%83%D8%B3%D8%B3%D9%88%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2e55002af25f09:0xe0ab86fdfa75d145!8m2!3d24.847029!4d46.82708!16s%2Fg%2F11vylgk8s8!19sChIJCV_yKgBVLj4RRdF1-v2Gq-A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AB%D9%88%D8%A8+%D8%A7%D9%84%D9%81%D8%A7%D8%AE%D8%B1+%D8%AD%D9%8A+%D8%A7%D9%84%D9%88%D8%B2%D9%8A%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cde278ad2cab:0xc2986c0e49d3de04!8m2!3d21.4566509!4d39.2456067!16s%2Fg%2F11swy439yg!19sChIJqyyteOLNwxURBN7TSQ5smMI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%A8%D8%A9+%D9%84%D9%84%D8%A3%D8%B2%D9%8A%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15fb5b520e1ce1cf:0x72ec29d9b617c328!8m2!3d18.3058407!4d42.732372!16s%2Fg%2F11f72zmppv!19sChIJz-EcDlJb-xURKMMXttkp7HI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab4e3c445723:0xd497b6f8b294c10b!8m2!3d24.8094004!4d46.8853105!16s%2Fg%2F11h1sr_sbz!19sChIJI1dEPE6rLz4RC8GUsvi2l9Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%B4%D9%86+%D8%AF%D8%B1%D9%8A%D8%B3+%D9%81%D8%B1%D8%B9+%D9%86%D8%AC%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15feddb376c1fbb7:0xa87ae2392534bac7!8m2!3d17.5635946!4d44.2526397!16s%2Fg%2F11ld86f9vd!19sChIJt_vBdrPd_hURx7o0JTnieqg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Crocs/data=!4m7!3m6!1s0x15fcab6ccca05d57:0xf36e6ac61a13cd61!8m2!3d18.2377857!4d42.5803824!16s%2Fg%2F11vx7hgz30!19sChIJV12gzGyr_BURYc0TGsZqbvM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D8%B1%D9%83%D8%B3+%D8%A3%D9%86%D8%AF+%D8%B3%D8%A8%D9%86%D8%B3%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2efd84c45ad3e7:0xdb9af44b2c411618!8m2!3d24.76909!4d46.7160492!16s%2Fg%2F11hc_sydfd!19sChIJ59NaxIT9Lj4RGBZBLEv0mts?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%B3%D8%A7%D9%86+%D9%84%D9%84%D8%A3%D8%AD%D8%B0%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%B4%D9%86%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x1581edd657d00d11:0xb632b5859df2abb6!8m2!3d26.0952758!4d43.9751064!16s%2Fg%2F11gbk3gk2b!19sChIJEQ3QV9btgRURtqvynYW1MrY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B0%D8%A7%D9%85%D8%A7%D9%86+%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98919e44e0291:0x9443e2e65e7fb5c7!8m2!3d21.2833693!4d40.4455535!16s%2Fg%2F11v66m8k_t!19sChIJkQJO5BmJ6RURx7V_XubiQ5Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B4%D8%B0%D8%A7%D8%A1+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2+%D9%84%D9%84%D8%B2%D9%8A+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d1ddd2b2c78f:0x85ec9bdd13ae5735!8m2!3d21.5813946!4d39.2260929!16s%2Fg%2F11q4gh2w2s!19sChIJj8ey0t3RwxURNVeuE92b7IU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0361e345154d:0xf199936246e5fe3a!8m2!3d24.6957919!4d46.7296728!16s%2Fg%2F11sqsjcskg!19sChIJTRVF42EDLz4ROv7lRmKTmfE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%85%D9%84+%D9%84%D9%84%D8%B9%D8%A8%D8%A7%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fb5b2ca7c5f057:0xdb2f0e8febc7bd10!8m2!3d18.3093394!4d42.7662325!16s%2Fg%2F11l5zdccjq!19sChIJV_DFpyxb-xUREL3H648OL9s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%84%D8%A8%D8%B3+%D8%A7%D9%84%D8%A3%D9%86%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x3e49e5c22858f0dd:0xf673ac68d31a5582!8m2!3d26.3473513!4d50.1352001!16s%2Fg%2F11fjb5h3xf!19sChIJ3fBYKMLlST4RglUa02isc_Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Khorshed+alam/data=!4m7!3m6!1s0x3e2f058685063c9f:0xb4af5082ec7f56e9!8m2!3d24.6173809!4d46.711177!16s%2Fg%2F11v3q62hp_!19sChIJnzwGhYYFLz4R6VZ_7IJQr7Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Polka+men%27s+wear/data=!4m7!3m6!1s0x1607e3018eff8351:0xb7615f969ae4a805!8m2!3d16.9007982!4d42.5581936!16s%2Fg%2F11y3km4t84!19sChIJUYP_jgHjBxYRBajkmpZfYbc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gerry+Weber/data=!4m7!3m6!1s0x3e49e7d84d2fcb17:0x4a451c2eafc85128!8m2!3d26.2911475!4d50.1807086!16s%2Fg%2F11hdgdq7m_!19sChIJF8svTdjnST4RKFHIry4cRUo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%8A%D8%B1%D9%88%D9%83%D9%8A+%D8%AD%D9%81%D8%B1%D8%A7%D9%84%D8%A8%D8%A7%D8%B7%D9%86+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fd7409e32449d1d:0x4d736f4be9ca2ef3!8m2!3d28.4042573!4d45.9583379!16s%2Fg%2F11gf97276k!19sChIJHZ1EMp5A1z8R8y7K6Utvc00?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%85%D8%B3%D8%A9+%D8%A3%D9%86%D9%8A%D9%82+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f59002c1318ad:0x1ee1fc5d812ec90c!8m2!3d26.3265519!4d43.9713933!16s%2Fg%2F11y40yybsj!19sChIJrRgTLABZfxURDMkugV384R4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B5%D9%85%D9%85%D8%A9+%D9%81%D8%A7%D8%B7%D9%85%D8%A9+%D8%A7%D9%84%D8%B3%D9%87%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ba9cf92afe3:0xf930adfea3dbe440!8m2!3d24.5977763!4d46.6521227!16s%2Fg%2F11vsz6z237!19sChIJ46-Sz6kbLz4RQOTbo_6tMPk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%A7%D9%8A%D8%A7%D8%AA+%D8%B1%D8%BA%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e49fd3611f68e7f:0x6cef462206493b7!8m2!3d26.4381818!4d50.0951745!16s%2Fg%2F11rw795mjr!19sChIJf472ETb9ST4Rt5NkIGL0zgY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Femi9%D9%81%D9%8A%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3dbc47e79f713:0x77d6b985e6f8d73c!8m2!3d21.5827823!4d39.1410544!16s%2Fg%2F11y3422j1v!19sChIJE_d5fsTbwxURPNf45oW51nc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D9%85%D8%BA%D9%8A%D8%B1+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbf0ed0343699:0x75b433d285696942!8m2!3d24.4608357!4d39.6047351!16s%2Fg%2F119wg3vrf!19sChIJmTY00A6_vRURQmlphdIztHU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sports+Shop+%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D9%88%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2effc9adace145:0x28f170eb0990c76b!8m2!3d24.8039306!4d46.7935957!16s%2Fg%2F11f189jfr_!19sChIJReGsrcn_Lj4Ra8eQCetw8Sg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D9%83%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15c3ce6bb2258dab:0xb9c68a8d46c20782!8m2!3d21.5060508!4d39.2195271!16s%2Fg%2F12hq_ptd9!19sChIJq40lsmvOwxURggfCRo2Kxrk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D9%85%D8%B1%D8%B4%D8%AF+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5879c22ece61:0xbbc32107b3f40f84!8m2!3d26.3281797!4d43.9731905!16s%2Fg%2F11hd6n2n_t!19sChIJYc4uwnlYfxURhA_0swchw7s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%AF%D9%8A%D8%AF%D8%A7%D8%B3+adidas%E2%80%AD/data=!4m7!3m6!1s0x1607e3c60dc5ec1b:0x8d71315e10d3f66f!8m2!3d16.9027014!4d42.5538576!16s%2Fg%2F11j4ld6gh2!19sChIJG-zFDcbjBxYRb_bTEF4xcY0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Stradivarius/data=!4m7!3m6!1s0x3e35a10796d84edb:0x87644a7934771280!8m2!3d27.0039423!4d49.6561238!16s%2Fg%2F11q8jps6cr!19sChIJ207YlgehNT4RgBJ3NHlKZIc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%85%D8%AF+%D9%84%D9%84%D8%AF%D8%B4%D8%AF%D8%A7%D8%B4%D8%A9+%D8%A7%D9%84%D9%83%D9%88%D9%8A%D8%AA%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f593d5579b747:0xc468b3758d4e237c!8m2!3d26.3168507!4d44.0178087!16s%2Fg%2F11vc7xz5mz!19sChIJR7d5VT1ZfxURfCNOjXWzaMQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%84%D9%88%D9%85%D9%8A%D8%B1+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9adf2d5ea2fe5:0xd882ad411eded6fd!8m2!3d28.3830898!4d36.5608001!16s%2Fg%2F11ftx6skf7!19sChIJ5S_q1fKtqRUR_dbeHkGtgtg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D9%85%D8%B4%D8%A7%D9%87%D9%8A%D8%B1+%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15feebd47d742977:0x1dd8c5a491347b7b!8m2!3d17.487345!4d44.1309021!16s%2Fg%2F11r_t9dxkq!19sChIJdyl0fdTr_hURe3s0kaTF2B0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%8A%D8%B3%D8%A7%D8%A6%D9%8A+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e4859fa02f89b7:0x8a328e897eb9ef26!8m2!3d18.5485671!4d42.0358452!16s%2Fg%2F11c1sk8qfl!19sChIJt4kvoJ-F5BURJu-5fomOMoo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D8%B1%D8%AC%D9%84+%D8%A7%D9%84%D9%85%D8%B4%D8%A7%D9%84%D8%AD+%D9%88%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e353002ae6c2bd:0x698a3f919af19f16!8m2!3d18.2076069!4d42.5127134!16s%2Fg%2F11y2bv717v!19sChIJvcLmKgBT4xURFp_xmpE_imk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%88%D8%A8+%D8%AA%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3da4162584cc3:0xbfab34ef12ac8b63!8m2!3d21.6086908!4d39.1300906!16s%2Fg%2F11cnbsxfjb!19sChIJw0xYYkHawxURY4usEu80q78?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%8A%D9%88%D9%84+%D8%A8%D9%86+%D8%B9%D8%AF%D9%88%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1be31d55e5ab:0x5e6a5a4817e65002!8m2!3d24.5949035!4d46.6323699!16s%2Fg%2F11f9fwfw9n!19sChIJq-VVHeMbLz4RAlDmF0haal4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Lefties/data=!4m7!3m6!1s0x15b91ba1dee55f05:0xf410d7758bcd2e63!8m2!3d24.03406!4d38.193047!16s%2Fg%2F11ng1p4tx5!19sChIJBV_l3qEbuRURYy7Ni3XXEPQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AF%D8%B9%D8%A8%D9%84%D9%8A+%D9%84%D9%84%D8%AA%D8%AC%D9%87%D9%8A%D8%B2%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fc7e02a4cf6f:0x8398361d90ebeb1b!8m2!3d26.4323655!4d50.0964016!16s%2Fg%2F11f3brhbnt!19sChIJb8-kAn78ST4RG-vrkB02mIM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D9%86%D9%85%D8%B1+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581ee8116b2479b:0x884752048877ac9b!8m2!3d26.0970264!4d43.9850233!16s%2Fg%2F11ggnbz2h2!19sChIJm0eyFoHugRURm6x3iARSR4g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D8%B0%D9%83%D8%A7%D8%B1+%D9%88%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b907001e9aef81:0xa152b5abb6b7d7b9!8m2!3d24.0838172!4d38.0563589!16s%2Fg%2F11vyvvglmx!19sChIJge-aHgAHuRURude3tqu1UqE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%84%D8%A3%D8%AD%D8%B0%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f058194a3b7c9:0x9feaebd143d634ce!8m2!3d24.608375!4d46.710449!16s%2Fg%2F11f3scy41d!19sChIJybejlIEFLz4RzjTWQ9Hr6p8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Karishma+Fashion/data=!4m7!3m6!1s0x157f5870b1b8da37:0xb40b737d0582fb9e!8m2!3d26.3305911!4d43.9716779!16s%2Fg%2F11c1tdlxhl!19sChIJN9q4sXBYfxURnvuCBX1zC7Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%B4%E2%80%AD/data=!4m7!3m6!1s0x15e2cb00662e58f9:0x3fc530d76b392845!8m2!3d17.3937218!4d42.539787!16s%2Fg%2F11lck4nyfg!19sChIJ-VguZgDL4hURRSg5a9cwxT8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%83%D8%AA%D8%B4%D8%B1%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e49fb96025f7c37:0xe2059cc44262a5e1!8m2!3d26.4549353!4d50.121425!16s%2Fg%2F11g6_896cx!19sChIJN3xfApb7ST4R4aViQsScBeI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AB%D8%B1%D9%8A%D8%A7%D8%A1+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab805f0a053f:0x98fc872a32ec5929!8m2!3d24.7453617!4d46.8383434!16s%2Fg%2F11s3xsx558!19sChIJPwUKX4CrLz4RKVnsMiqH_Jg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Zola+abaya/data=!4m7!3m6!1s0x3e49ff7b0ef2fdb3:0x87810627c910f05d!8m2!3d26.4746544!4d50.039016!16s%2Fg%2F11v9_js05k!19sChIJs_3yDnv_ST4RXfAQyScGgYc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%85%D9%84+%D9%84%D9%84%D8%B9%D8%A8%D8%A7%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e3537d5c95ce09:0xb61925caab22dfcb!8m2!3d18.2049682!4d42.5148015!16s%2Fg%2F11sw6jf86b!19sChIJCc6VXH1T4xURy98iq8olGbY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Beverly+Hills+Polo+Club/data=!4m7!3m6!1s0x3e2ee1103823c731:0xb9596dea57691951!8m2!3d24.752336!4d46.538222!16s%2Fg%2F11vt5jkhk1!19sChIJMccjOBDhLj4RURlpV-ptWbk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1bad3736714d:0xc001161a0c9b584d!8m2!3d24.6313143!4d46.6104688!16s%2Fg%2F11tjy76tm3!19sChIJTXE2N60bLz4RTVibDBoWAcA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D9%83%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e2ee2a4449ef0d9:0x9b73d5164aebef9b!8m2!3d24.74458!4d46.65757!16s%2Fg%2F11c2q5q63d!19sChIJ2fCeRKTiLj4Rm-_rShbVc5s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Cavallo+D%27oro+%D9%83%D8%A7%D9%81%D8%A7%D9%84%D9%88+%D8%AF%D9%88%D8%B1%D9%88+%28%D9%81%D8%B1%D8%B9+%D8%B4%D8%B1%D9%83%D8%A9+%D8%B1%D8%A8%D8%A7%D8%B9%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D9%88%D8%A7%D8%B3%D9%85%29%E2%80%AD/data=!4m7!3m6!1s0x3e49e9007782d17d:0x17c30fa225b8c516!8m2!3d26.2810202!4d50.2133201!16s%2Fg%2F11vzd12mky!19sChIJfdGCdwDpST4RFsW4JaIPwxc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/COTTONIL/data=!4m7!3m6!1s0x3e49e8300692219f:0x1d3d01748129fdba!8m2!3d26.2861467!4d50.2141544!16s%2Fg%2F11g6ly8s6y!19sChIJnyGSBjDoST4Ruv0pgXQBPR0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/LC+Waikiki/data=!4m7!3m6!1s0x15c3d102ad2396a3:0xb3ed520feaeacd43!8m2!3d21.593029!4d39.229563!16s%2Fg%2F11ptlkqh__!19sChIJo5YjrQLRwxURQ83q6g9S7bM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%AE%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D8%BA+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15ea2fc53c0e410f:0xda7389b8ca830463!8m2!3d21.4448697!4d40.4836304!16s%2Fg%2F11vlnj237y!19sChIJD0EOPMUv6hURYwSDyriJc9o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Women%27s+Secret/data=!4m7!3m6!1s0x15e988c3dd91c2bf:0xe51be1badb5b7cbc!8m2!3d21.277155!4d40.44519!16s%2Fg%2F11f5h5ptr4!19sChIJv8KR3cOI6RURvHxb27rhG-U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A3%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D9%84%D9%84%D8%A3%D8%B3%D8%A8%D9%88%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f593a10c8a375:0xc9456d098aa42869!8m2!3d26.367494!4d43.9598977!16s%2Fg%2F11fhqmhxlt!19sChIJdaPIEDpZfxURaSikigltRck?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%88%D8%B1%D9%8A+%D8%A7%D9%84%D8%A7%D8%A8%D8%B7%D8%A7%D9%84+%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cbcd3cbbb71f:0xe917554e8cbf260!8m2!3d21.3991237!4d39.2923024!16s%2Fg%2F11gxzd5p3r!19sChIJH7e7PM3LwxURYPLL6FR1kQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Queen+Shoes/data=!4m7!3m6!1s0x157f57cf91169cd9:0x30b1f7c8d5de7411!8m2!3d26.3735929!4d43.9362531!16s%2Fg%2F11sk5fv154!19sChIJ2ZwWkc9XfxUREXTe1cj3sTA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%B2%D9%87%D9%88%D8%B1%D8%A7+%D8%A7%D9%84%D8%A3%D8%AD%D8%B3%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e3797590c5dd3d5:0xa86168f6f85182ae!8m2!3d25.3984478!4d49.5972137!16s%2Fg%2F11rw7gwm2y!19sChIJ1dNdDFmXNz4RroJR-PZoYag?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A7%D9%84%D9%85+%D8%A7%D9%84%D8%B7%D9%81%D9%88%D9%84%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ea2f709070330d:0xffb873ad3cf876ee!8m2!3d21.4393104!4d40.4828542!16s%2Fg%2F11ghf7jbv3!19sChIJDTNwkHAv6hUR7nb4PK1zuP8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%84%D9%8A%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e3797f5c0189109:0xe2cfc703b7e457fb!8m2!3d25.4001139!4d49.5782944!16s%2Fg%2F11vlcvzvf5!19sChIJCZEYwPWXNz4R-1fktwPHz-I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Elie+Saab+Riyadh/data=!4m7!3m6!1s0x3e2f1c66de884e37:0x1bd2e00a7d857352!8m2!3d24.6670797!4d46.6264127!16s%2Fg%2F11pkhr7dp4!19sChIJN06I3mYcLz4RUnOFfQrg0hs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%AE%D8%B5%D9%8A%D8%AA%D9%83+%D8%A7%D9%86%D8%A7%D9%82%D8%AA%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2effbe84aab78f:0x6880a74a74a79950!8m2!3d24.8118024!4d46.7996677!16s%2Fg%2F11khkh1z8w!19sChIJj7eqhL7_Lj4RUJmndEqngGg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%AE%D8%A7%D9%85%D8%A9+%D8%AF%D8%B4%D8%AF%D8%A7%D8%B4%D8%AA%D9%8A+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D9%88%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbfecd289eaab:0x2500a39a831b5ba1!8m2!3d24.4742095!4d39.6325192!16s%2Fg%2F11tgckqll9!19sChIJq-qJ0uy_vRURoVsbg5qjACU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%BA%D9%81%D9%8A%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e8051857af29:0xc67305342e5e021!8m2!3d26.2750849!4d50.1921706!16s%2Fg%2F11f2sgjftg!19sChIJKa9XGAXoST4RIeDlQlMwZww?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B1%D9%88%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D8%BA%D8%B1%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ef9da336875:0x3aea3955069caadc!8m2!3d24.5585982!4d46.7120842!16s%2Fg%2F11fy50f0qm!19sChIJdWgz2vkOLz4R3KqcBlU56jo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B2%D8%A7%D8%B1%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f02d3fc5fc317:0x8fbb0f757b75b7c7!8m2!3d24.7125868!4d46.674834!16s%2Fg%2F11f3x56wyx!19sChIJF8Nf_NMCLz4Rx7d1e3UPu48?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D8%B5%D9%88%D9%84+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D9%87+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15bdbf5355d13313:0xbcfa17f99ea40656!8m2!3d24.4730503!4d39.6129435!16s%2Fg%2F11t3fg6yhn!19sChIJEzPRVVO_vRURVgaknvkX-rw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%85%D9%8A%D8%AD%D9%8A+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fbdea8e3ce09:0xe5fadfb13cceda5!8m2!3d26.443345!4d50.1033979!16s%2Fg%2F11t0pjgj9p!19sChIJCc7jqN77ST4Rpe3ME_utXw4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D9%8A%D9%84+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1572bbe97a278199:0x43519954af5c5b8!8m2!3d29.9695968!4d40.2092819!16s%2Fg%2F1hf2qjg7k!19sChIJmYEneum7chURuMX1SpUZNQQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sport+Store/data=!4m7!3m6!1s0x3e2f075b5f169db5:0xddbc261edbe9f375!8m2!3d24.6565296!4d46.7513441!16s%2Fg%2F11vpcnv_zd!19sChIJtZ0WX1sHLz4RdfPp2x4mvN0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%A7%D9%86%D8%A7%D9%82%D8%A9+%D9%84%D9%84%D8%B2%D9%8A+%D8%A7%D9%84%D9%85%D9%88%D8%AD%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c17db9097b526b:0xec54ab5caa41e37b!8m2!3d21.7458241!4d39.1899722!16s%2Fg%2F11s2k8lknj!19sChIJa1J7Cbl9wRURe-NBqlyrVOw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B6%D8%A8%D8%A7%D8%A1+%D9%84%D9%84%D8%A3%D8%B2%D9%8A%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c3cfde6e520d91:0x1331f4e2c02402e7!8m2!3d21.5365049!4d39.1769453!16s%2Fg%2F11f76yzzf8!19sChIJkQ1Sbt7PwxUR5wIkwOL0MRM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%84%D8%A8%D8%B3%D9%83+%D8%A7%D9%86%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c20540eb15da71:0xd4cd4c7c02bb01ac!8m2!3d21.3613368!4d39.8740826!16s%2Fg%2F11vwhtvjyx!19sChIJcdoV60AFwhURrAG7AnxMzdQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D8%B1%D9%8A+%D9%84%D9%84%D8%B9%D8%A8%D8%A7%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdbfa0805fb9c5:0xc2093feca7c03898!8m2!3d24.4547312!4d39.6107133!16s%2Fg%2F11gd3bp9gz!19sChIJxblfgKC_vRURmDjAp-w_CcI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581edd3a250332f:0x2057549520324976!8m2!3d26.0900224!4d43.9789627!16s%2Fg%2F11cn6h53x9!19sChIJLzNQotPtgRURdkkyIJVUVyA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A7%D9%84%D9%85+%D8%AF%D9%8A%D9%86%D8%A7+%D9%84%D9%84%D8%A3%D8%B2%D9%8A%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15e98936cef2fb83:0xd2c0b9a672b7ba41!8m2!3d21.2757206!4d40.4155678!16s%2Fg%2F11hdjf1gwz!19sChIJg_vyzjaJ6RURQbq3cqa5wNI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156c0dc1123336dd:0xa73793d71042501b!8m2!3d30.98708!4d41.0228131!16s%2Fg%2F11tfhs6zls!19sChIJ3TYzEsENbBURG1BCENeTN6c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%A7%D8%A8%D8%AF%D8%A7%D8%B9%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b0058d40f1d:0xf70a1cd7405ca810!8m2!3d24.5925542!4d46.6499753!16s%2Fg%2F11v_2pcl_6!19sChIJHQ_UWAAbLz4REKhcQNccCvc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SAW+-+%D8%B3%D8%A7%D9%88%E2%80%AD/data=!4m7!3m6!1s0x15bdbf02a59f7f3f:0xf004f0bfb86f8365!8m2!3d24.4898407!4d39.5824232!16s%2Fg%2F11y44h85p3!19sChIJP3-fpQK_vRURZYNvuL_wBPA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%8A%D8%A8+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D9%87+%D9%84%D9%84%D8%B9%D8%A8%D8%A7%D9%8A%D8%A7%D8%AA+%D9%88%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37ebf5fcb10b19:0x8927cb28f034bd2!8m2!3d25.422252!4d49.7148756!16s%2Fg%2F11tsn8vrld!19sChIJGQux_PXrNz4R0ksDj7J8kgg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D9%84%D8%A8%D9%8A%D8%B9+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05a55ef12781:0xede9f184a264aca8!8m2!3d24.6355302!4d46.7177358!16s%2Fg%2F11gg738xnh!19sChIJgSfxXqUFLz4RqKxkooTx6e0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%84%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f05a844656ddd:0x1c5bae73284fb493!8m2!3d24.689762!4d46.6869006!16s%2Fg%2F11jzsbsvpl!19sChIJ3W1lRKgFLz4Rk7RPKHOuWxw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D8%A7%D8%B3%D8%B3%D8%A9+%D8%A7%D9%86%D8%A7%D9%82%D8%A9+%D8%B3%D9%8A%D8%AF%D8%B1%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c3cf62262a8e8f:0xc176f693be8a1021!8m2!3d21.4823704!4d39.1881018!16s%2Fg%2F11v0l0kyzg!19sChIJj44qJmLPwxURIRCKvpP2dsE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%AB%D8%A7%D9%84%D9%8A+%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2ac758e4418581:0x280c36d11e402c97!8m2!3d25.9054935!4d45.341223!16s%2Fg%2F11gj_qjnqy!19sChIJgYVB5FjHKj4RlyxAHtE2DCg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%83%D9%86+%D8%A7%D9%86%D8%A7%D9%82%D8%AA%D9%83+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad8421568195:0x5a10dd05fb13ca37!8m2!3d28.3631216!4d36.5290848!16s%2Fg%2F11t3fq5nkl!19sChIJlYFWIYStqRURN8oT-wXdEFo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%AA%D8%A7%D8%A6%D8%B1+%D9%88+%D9%85%D9%81%D8%A7%D8%B1%D8%B4+%D8%A7%D9%84%D8%B1%D9%8A%D8%B4%D9%87+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05b2e8253475:0x2d8529efd124f999!8m2!3d24.6188608!4d46.7301308!16s%2Fg%2F11sy72_kwc!19sChIJdTQl6LIFLz4Rmfkk0e8phS0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%8A%D8%B1%D9%8A+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c2053acb36767f:0xcccf5edd7a98677!8m2!3d21.4051668!4d39.8718658!16s%2Fg%2F11jyz_z_q1!19sChIJf3Y2yzoFwhURd4ap1-31zAw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B3%D9%85%D8%A9+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9+%D9%88%D8%A7%D9%84%D8%A7%D8%AD%D8%B0%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a5abe552f0a057:0xec32e67cdb649a03!8m2!3d26.6030581!4d37.9285342!16s%2Fg%2F11y4rq6bbh!19sChIJV6DwUuWrpRURA5pk23zmMuw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AA%D8%AC%D8%B1+%D9%83%D8%B3%D9%88%D8%A9+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x42bc2fba0c59d647:0x8dd3fd3925293d6a!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11v4mpg0xp!19sChIJR9ZZDLovvEIRaj0pJTn9040?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AE%D8%A7%D9%84%D8%AF+%D9%85%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D8%A8%D9%84%D9%88%D9%8A+%D9%84%D8%A8%D9%8A%D8%B9+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D8%A7%D9%87%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ac54a5af5287:0x8b60b0fbbdf8bd66!8m2!3d28.3842833!4d36.5612735!16s%2Fg%2F11ghq3_4x5!19sChIJh1KvpVSsqRURZr34vfuwYIs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%82%D9%88%D8%A9+%D8%A7%D9%84%D9%82%D8%A7%D8%B1%D8%A7%D8%AA+%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%87+%D9%88%D8%A7%D9%84%D8%A7%D8%B3%D8%A8%D9%88%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2ee343d7418a43:0x489bfd599ffab3dd!8m2!3d24.8030454!4d46.6418206!16s%2Fg%2F11g6976gj1!19sChIJQ4pB10PjLj4R3bP6n1n9m0g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B2%D9%88%D9%8A%D9%86%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98f0066c07739:0x34298b275cb78024!8m2!3d21.2585906!4d40.4139726!16s%2Fg%2F11vt4sg4w0!19sChIJOXfAZgCP6RURJIC3XCeLKTQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Design+Society/data=!4m7!3m6!1s0x3e49e9aaa3a3dea3:0x448c1b708782e8e!8m2!3d26.3025643!4d50.2218703!16s%2Fg%2F11gpm224vy!19sChIJo96jo6rpST4Rji54CLfBSAQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D8%B1%D8%B9+%D9%86%D9%87%D8%B1+%D8%B3%D9%86%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e2efd51b07783fb:0x98e78bb03b03f5ae!8m2!3d24.7794796!4d46.6817744!16s%2Fg%2F11kqhx0j8s!19sChIJ-4N3sFH9Lj4RrvUDO7CL55g?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://www.go...</t>
   </si>
   <si>
     <t>صبايا للازياء</t>
   </si>
   <si>
-    <t>بيلسان للاحذية</t>
+    <t>بيلسان للاحذية...</t>
   </si>
   <si>
     <t>REDTAG</t>
   </si>
   <si>
-    <t>مؤسسة روائع الحاضر للتجارة للمستلزمات الرجالية</t>
-  </si>
-  <si>
-    <t>Skechers - Galleria Mall</t>
-  </si>
-  <si>
-    <t>معرض كشخة الستين مكة</t>
-  </si>
-  <si>
-    <t>مؤسسة أسرار الغربية للملابس الجاهزة الرجالية</t>
-  </si>
-  <si>
-    <t>Top one للملابسة النسايئة والاكسسورات</t>
-  </si>
-  <si>
-    <t>مركز الثوب الفاخر حي الوزيرية</t>
+    <t>مؤسسة روائع ال...</t>
+  </si>
+  <si>
+    <t>Skechers - Gal...</t>
+  </si>
+  <si>
+    <t>معرض كشخة الست...</t>
+  </si>
+  <si>
+    <t>مؤسسة أسرار ال...</t>
+  </si>
+  <si>
+    <t>Top one للملاب...</t>
+  </si>
+  <si>
+    <t>مركز الثوب الف...</t>
   </si>
   <si>
     <t>هبة للأزياء</t>
@@ -373,28 +76,28 @@
     <t>ملابس رياضية</t>
   </si>
   <si>
-    <t>اكشن دريس فرع نجران</t>
+    <t>اكشن دريس فرع ...</t>
   </si>
   <si>
     <t>Crocs</t>
   </si>
   <si>
-    <t>ماركس أند سبنسر</t>
-  </si>
-  <si>
-    <t>بيسان للأحذية والشنط</t>
-  </si>
-  <si>
-    <t>ذامان مستلزمات رجالية</t>
-  </si>
-  <si>
-    <t>الشذاء المميز للزي العربي</t>
+    <t>ماركس أند سبنس...</t>
+  </si>
+  <si>
+    <t>بيسان للأحذية ...</t>
+  </si>
+  <si>
+    <t>ذامان مستلزمات...</t>
+  </si>
+  <si>
+    <t>الشذاء المميز ...</t>
   </si>
   <si>
     <t>ديون</t>
   </si>
   <si>
-    <t>اسطورة الشامل للعبايات</t>
+    <t>اسطورة الشامل ...</t>
   </si>
   <si>
     <t>اللبس الأنيق</t>
@@ -403,19 +106,19 @@
     <t>Khorshed alam</t>
   </si>
   <si>
-    <t>Polka men's wear</t>
+    <t>Polka men's we...</t>
   </si>
   <si>
     <t>Gerry Weber</t>
   </si>
   <si>
-    <t>شيروكي حفرالباطن للملابس الطبية</t>
-  </si>
-  <si>
-    <t>لمسة أنيق للملابس الرجالية</t>
-  </si>
-  <si>
-    <t>المصممة فاطمة السهلي</t>
+    <t>شيروكي حفرالبا...</t>
+  </si>
+  <si>
+    <t>لمسة أنيق للمل...</t>
+  </si>
+  <si>
+    <t>المصممة فاطمة ...</t>
   </si>
   <si>
     <t>عبايات رغد</t>
@@ -424,16 +127,16 @@
     <t>Femi9فيمي</t>
   </si>
   <si>
-    <t>سوق المغير التجاري</t>
-  </si>
-  <si>
-    <t>Sports Shop ملابس وللرياضة</t>
+    <t>سوق المغير الت...</t>
+  </si>
+  <si>
+    <t>Sports Shop مل...</t>
   </si>
   <si>
     <t>ماكس</t>
   </si>
   <si>
-    <t>فهد المرشد للمستلزمات الرجالية</t>
+    <t>فهد المرشد للم...</t>
   </si>
   <si>
     <t>اديداس adidas</t>
@@ -442,34 +145,34 @@
     <t>Stradivarius</t>
   </si>
   <si>
-    <t>حمد للدشداشة الكويتية</t>
-  </si>
-  <si>
-    <t>بلومير للمستلزمات الرجالية</t>
-  </si>
-  <si>
-    <t>محل مشاهير النجوم للملابس الرياضيه</t>
-  </si>
-  <si>
-    <t>العيسائي للملابس النسائية</t>
-  </si>
-  <si>
-    <t>كيان الرجل المشالح والمستلزمات الرجاليه</t>
+    <t>حمد للدشداشة ا...</t>
+  </si>
+  <si>
+    <t>بلومير للمستلز...</t>
+  </si>
+  <si>
+    <t>محل مشاهير الن...</t>
+  </si>
+  <si>
+    <t>العيسائي للملا...</t>
+  </si>
+  <si>
+    <t>كيان الرجل الم...</t>
   </si>
   <si>
     <t>توب تن</t>
   </si>
   <si>
-    <t>مريول بن عدوان</t>
+    <t>مريول بن عدوان...</t>
   </si>
   <si>
     <t>Lefties</t>
   </si>
   <si>
-    <t>مركز الدعبلي للتجهيزات العسكرية</t>
-  </si>
-  <si>
-    <t>محل ركن النمر للملابس الرياضية</t>
+    <t>مركز الدعبلي ل...</t>
+  </si>
+  <si>
+    <t>محل ركن النمر ...</t>
   </si>
   <si>
     <t>تذكار وان</t>
@@ -478,7 +181,7 @@
     <t>للأحذية</t>
   </si>
   <si>
-    <t>Karishma Fashion</t>
+    <t>Karishma Fashi...</t>
   </si>
   <si>
     <t>بيش</t>
@@ -487,22 +190,22 @@
     <t>سكتشرز</t>
   </si>
   <si>
-    <t>الثرياء للمستلزمات الرجالية</t>
+    <t>الثرياء للمستل...</t>
   </si>
   <si>
     <t>Zola abaya</t>
   </si>
   <si>
-    <t>شركة اسطورة الشامل للعبايات</t>
-  </si>
-  <si>
-    <t>Beverly Hills Polo Club</t>
+    <t>شركة اسطورة ال...</t>
+  </si>
+  <si>
+    <t>Beverly Hills ...</t>
   </si>
   <si>
     <t>للرياضة</t>
   </si>
   <si>
-    <t>Cavallo D'oro كافالو دورو (فرع شركة رباعيات المواسم)</t>
+    <t>Cavallo D'oro ...</t>
   </si>
   <si>
     <t>COTTONIL</t>
@@ -511,22 +214,22 @@
     <t>LC Waikiki</t>
   </si>
   <si>
-    <t>فخامة الشماغ للمستلزمات الرجاليه</t>
-  </si>
-  <si>
-    <t>Women's Secret</t>
-  </si>
-  <si>
-    <t>الأسطورة للأسبورات الرجالية</t>
-  </si>
-  <si>
-    <t>دوري الابطال للرياضة</t>
+    <t>فخامة الشماغ ل...</t>
+  </si>
+  <si>
+    <t>Women's Secret...</t>
+  </si>
+  <si>
+    <t>الأسطورة للأسب...</t>
+  </si>
+  <si>
+    <t>دوري الابطال ل...</t>
   </si>
   <si>
     <t>Queen Shoes</t>
   </si>
   <si>
-    <t>محل زهورا الأحساء</t>
+    <t>محل زهورا الأح...</t>
   </si>
   <si>
     <t>عالم الطفولة</t>
@@ -535,103 +238,103 @@
     <t>المليحة</t>
   </si>
   <si>
-    <t>Elie Saab Riyadh</t>
+    <t>Elie Saab Riya...</t>
   </si>
   <si>
     <t>شخصيتك اناقتك</t>
   </si>
   <si>
-    <t>فخامة دشداشتي فرع المدينة المنورة</t>
+    <t>فخامة دشداشتي ...</t>
   </si>
   <si>
     <t>مركز الغفيلي</t>
   </si>
   <si>
-    <t>مركز روائع الغربية</t>
+    <t>مركز روائع الغ...</t>
   </si>
   <si>
     <t>زارا</t>
   </si>
   <si>
-    <t>الفصول الاربعه للملابس الجاهزه</t>
-  </si>
-  <si>
-    <t>الرميحي للمستلزمات الرجالية</t>
-  </si>
-  <si>
-    <t>النيل للملابس الجاهزة</t>
+    <t>الفصول الاربعه...</t>
+  </si>
+  <si>
+    <t>الرميحي للمستل...</t>
+  </si>
+  <si>
+    <t>النيل للملابس ...</t>
   </si>
   <si>
     <t>Sport Store</t>
   </si>
   <si>
-    <t>صفاء الاناقة للزي الموحد</t>
-  </si>
-  <si>
-    <t>الضباء للأزياء</t>
-  </si>
-  <si>
-    <t>شركة لبسك اناقة</t>
+    <t>صفاء الاناقة ل...</t>
+  </si>
+  <si>
+    <t>الضباء للأزياء...</t>
+  </si>
+  <si>
+    <t>شركة لبسك اناق...</t>
   </si>
   <si>
     <t>جوري للعبايات</t>
   </si>
   <si>
-    <t>رائع المميز للملابس الرجالية والرياضية</t>
-  </si>
-  <si>
-    <t>عالم دينا للأزياء</t>
-  </si>
-  <si>
-    <t>محل ركن الفرسان للمستلزمات الرجالية</t>
-  </si>
-  <si>
-    <t>محل ابداعات الاسطورة للملابس الرياضية</t>
+    <t>رائع المميز لل...</t>
+  </si>
+  <si>
+    <t>عالم دينا للأز...</t>
+  </si>
+  <si>
+    <t>محل ركن الفرسا...</t>
+  </si>
+  <si>
+    <t>محل ابداعات ال...</t>
   </si>
   <si>
     <t>SAW - ساو</t>
   </si>
   <si>
-    <t>مؤسسة الشايب التجاريه للعبايات والمستلزمات النسائية</t>
-  </si>
-  <si>
-    <t>محل لبيع الملابس الرجالية الجاهزة</t>
+    <t>مؤسسة الشايب ا...</t>
+  </si>
+  <si>
+    <t>محل لبيع الملا...</t>
   </si>
   <si>
     <t>العليا</t>
   </si>
   <si>
-    <t>مواسسة اناقة سيدره</t>
-  </si>
-  <si>
-    <t>المثالي للرياضة</t>
-  </si>
-  <si>
-    <t>ركن اناقتك للملابس الجاهزة</t>
-  </si>
-  <si>
-    <t>ستائر و مفارش الريشه الذهبية</t>
-  </si>
-  <si>
-    <t>شيري للملابس النسائيه</t>
-  </si>
-  <si>
-    <t>بسمة الشمال للملابس الجاهزة والاحذية</t>
-  </si>
-  <si>
-    <t>متجر كسوة الخيالة</t>
-  </si>
-  <si>
-    <t>مؤسسة خالد محمد البلوي لبيع الملابس الرجالية الجاهزة</t>
-  </si>
-  <si>
-    <t>قوة القارات للرياضه والاسبورات</t>
-  </si>
-  <si>
-    <t>الزوينة للملابس النسائية</t>
-  </si>
-  <si>
-    <t>Design Society</t>
+    <t>مواسسة اناقة س...</t>
+  </si>
+  <si>
+    <t>المثالي للرياض...</t>
+  </si>
+  <si>
+    <t>ركن اناقتك للم...</t>
+  </si>
+  <si>
+    <t>ستائر و مفارش ...</t>
+  </si>
+  <si>
+    <t>شيري للملابس ا...</t>
+  </si>
+  <si>
+    <t>بسمة الشمال لل...</t>
+  </si>
+  <si>
+    <t>متجر كسوة الخي...</t>
+  </si>
+  <si>
+    <t>مؤسسة خالد محم...</t>
+  </si>
+  <si>
+    <t>قوة القارات لل...</t>
+  </si>
+  <si>
+    <t>الزوينة للملاب...</t>
+  </si>
+  <si>
+    <t>Design Society...</t>
   </si>
   <si>
     <t>شارع نهر سند</t>
@@ -643,34 +346,34 @@
     <t>متجر أحذية</t>
   </si>
   <si>
-    <t>متجر ملابس رجالي</t>
-  </si>
-  <si>
-    <t>متجر ملابس حريمي</t>
+    <t>متجر ملابس رجا...</t>
+  </si>
+  <si>
+    <t>متجر ملابس حري...</t>
   </si>
   <si>
     <t>متجر أزياء</t>
   </si>
   <si>
-    <t>متجر للزي الموحد</t>
+    <t>متجر للزي المو...</t>
   </si>
   <si>
     <t>متجر الملابس</t>
   </si>
   <si>
-    <t>متجر ملابس رياضية</t>
+    <t>متجر ملابس ريا...</t>
   </si>
   <si>
     <t>متجر</t>
   </si>
   <si>
-    <t>متجر ملابس داخلية نسائية</t>
-  </si>
-  <si>
-    <t>متجر ملابس أطفال</t>
-  </si>
-  <si>
-    <t>متجر ملابس الشباب</t>
+    <t>متجر ملابس داخ...</t>
+  </si>
+  <si>
+    <t>متجر ملابس أطف...</t>
+  </si>
+  <si>
+    <t>متجر ملابس الش...</t>
   </si>
   <si>
     <t>4.3</t>
@@ -850,304 +553,304 @@
     <t>35</t>
   </si>
   <si>
-    <t>572J+852، شارع عمر بن الخطاب، الليث 28434، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PM9C+R7، الورود، الرياض 12215، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سيتي مول, طريق الرياض، الشاطئ، القطيف‎ 32641، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2510 الامام محمد بن سعود بن مقرن، 6753، الديرة، الرياض 12634، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Galleria Mall، Al Khamis Rd، الفناتير، الجبيل 35811، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4481، 7756 قصر الضيافة، النزهة مكة 24225 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JPQ9+6RR، شارع أبي أيوب الأنصاري, حي البطحاء، الرياض 12645، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الرمال، RURB2565، 2565 بدر الدين بن عمر خوج، 7390، الرياض 13265، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مدائن الفهد، 6831 حي 2231، جدة 22347، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8P4J+8WQ، العرق الجنوبي،، خميس مشيط 62461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RV5P+Q47، البرق، حي الندوة، الرياض 14814، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بارك مول، شارع الاثابية، مخطط الاثايبة الشمالية الزراعي، بوابة 4، نجران 55461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RASHID MALL, البديع، أبها 62581، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>النخيل مول، الإمام سعود، مخرج 5، حي النزهة، المغرزات، بوابة 2، الرياض 12483، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7174، 3615، حي وسط المدينة، عنيزة 56219، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الملك خالد مقابل ماكدونالدز، الطائف المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الصفا، شارع عبد العزيز بن ابراهيم، امام سوق المرجان بجوار السوق المفتوح، جدة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MPWH+7QX، الملك عبد العزيز، الرياض 12411، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8Q58+PFQ، طريق وادي بن هشبل، الموسى، خميس مشيط 62463، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>84WP+W3W، حي الجامعة، الظهران 34257، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الاعشى، سكيرينة، الرياض 12653، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>جازان 24221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6546 الشهاب الطائفي، 3537، العليا، الخبر 34448، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Prince Sultan Street، الفيصلية، حفر الباطن 39951، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الجردة، 3893، حي الجردة، بريدة 52355 8025, بريدة 52355، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ال ثنيان، ظهرة البديعة، الرياض 12784، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3337 الملك خالد، القزاز، الدمام 32244 8113، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>U walk, Gate 2, الامير سلطان، الزهراء، جدة 23424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المغيسلة، المدينة المنورة 42315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>اليرموك، الرياض 13251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3337، 8799 3337 الأمير ماجد حي الفيحاء جدة 22245 3337، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8XHF+77G، طريق الملك عبدالعزيز، حي الخالدية، حي الجردة، بريدة 52355، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3137، جازان 82723 7222، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4355 المدينة المنورة، الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق عائشه، البساتين، بريدة 12345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشارع العام، المنشية القديمة، تبوك 47914، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، طريق الملك عبدالعزيز، ابا لسعود، البلد، نجران المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G2XP+C8H، الخالدية، محايل عسير 63713، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6883 المدينة المنورة، النزهة، 4673، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع حراء، النهضة، جدة 23523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJVJ+XW9، ظهرة البديعة، الرياض 12981، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>25MV+J6F road s/n, الملك فهد، العزيزية، ينبع 46435، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>C3JW+WHR, شارع المستشفي، حي, العدامة، الدمام 32243، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3XWP+R26، الشريمية، عنيزة 56219، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6879 طريق الملك عبدالعزي، حي الزهور، YADC3732، 3732، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JP56+85W، شارع عبد الله بن عبدالرحمن بن فيصل، عتيقة، الرياض 12655، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8XJC+6MM، طريق الملك عبد العزيز، حي الجردة، بريدة 52361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GLGA2252، 2252 طريق الأمير سلطان، 6605، بردان، العارضة 83613، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Prince Mohammed Bin Fahd Road طريق الأمير محمد بن فهد بن عبدالعزيز، 4426، الشاطئ الشرقي، الدمام 32414، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابي الاسود الدؤلي، النسيم الشرقي، الرياض 14241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السلام، سيهات‎ 37835، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4914 طريق المدينة المنورة، النزهة، 6591، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PARK AVENUE, الدرعية الجديدة، الرياض 13734، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الوادي، 6217،، حي لبن،، RILA4370، 4370، الرياض 12936،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>King Fahad Road, Riyadh Galley Mall, الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76J7+C84، شارع الملك خالد، حي الخبر الشمالية، الخبر 34429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76P7+FM2، شارع الملك خالد، حي الخبر الشمالية، الخبر 34427، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المنار، جدة 23462، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CFVM+WFR، حي المضباع، CFFG+6RPالحويةالطائف 26571، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Khalid bin Walid Road, حي الجال، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله، الصفراء، بريدة 12345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7399 حي الاجاويد، جدة 22443، جدة 22443، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العثيم مول, طريق عمر بن الخطاب، حي الإسكان، بريدة 51431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>النجاح، طريق الملك سلمان، المسعودي، المبرز 36341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CFQM+P4H، طريق سوق الماشية، الحوية، الحوية، الطائف 26576، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CH2H+275، طريق الظهران، وسط الأحساء، المبرز 36341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>District، Al-Sahmi، Street، Via Riyadh Mall, Diplomatic region, Al-Hada، الرياض 12912، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، شارع النجاح، اليرموك، الرياض 12211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المهاجر بن أبي أمية، بني معاوية، المدينة المنورة 42313، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75GR+2VM، الثقبة، الخبر 34624، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3063 الترمذي، 7797، بدر، الرياض 14716، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سنتر بوينت، Ground floor، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 3068 ابى عبيده بن الجراح رضى الله عنه، 7084، بضاعة، 42311،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سوق عيال ناصر سوق الحب، الدواسر، الدمام 25767، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X695+RPM، المطر، سكاكا 72341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>REMA3826، 7903 الوتر، حي الملز، 3826، الرياض 12842، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحمدانية،، الشارع العام ,حي،، جدة 23743، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G5PG+JQ4، الحمراء، جدة 23324، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ممشى، شارع فاطمة الزهراء، النسيم، مكة 24245، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FJ36+V7W، الجمعة، المدينة المنورة 42316، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3XRH+2H4، شارع السلسلة، الضليعة، عنيزة 56219، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>خالد بن الوليد، الشرقية، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X2PF+R47، طريق الملك عبدالعزيز، العزيزية،، عرعر 73311،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJVX+2XH، عائشة بنت أبي بكر، ظهرة البديعة، الرياض 12784، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مجمع الدخيل خلف مكتبة جرير، طريق سلطانة، بئر عثمان، المدينة المنورة 42331، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6281، العمران 36356، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JPP9+639, البطحاء،, المرقب، الرياض 12645، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع، الوزارات، الرياض 99909، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3284 الليات، حي البلد، JACB6626، 6626، جدة 22236، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8252 طريق الملك عبدالله، 5542، المرقب, 5542، المجمعة 15371، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الصفا، تبوك 47917، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 6862 حافظ الحكمي، غبيرة، الرياض 12665 3304،، غبيرة، الرياض 12665، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CV4C+3P9 محل شيري بسوق العزيزية، الجامعة، مكة 24243، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابن عبدالرحمن ال سعود، شارع الملك عبدالعزيز، العلا 43522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HM6+PG6، الامام محمد بن عبد الوهاب، حي المنشية، العوايشة، تبوك 47914، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Slam ben، شارع محمد رؤوف، الصحافة، الرياض 12281، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7C57+CHQ، النزهة، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>اليرموك، الخبر 34424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QMHJ+QPR، نهر السند، النفل، الرياض 13312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>+9668003043113</t>
+    <t>572J+852، شارع...</t>
+  </si>
+  <si>
+    <t>PM9C+R7، الورو...</t>
+  </si>
+  <si>
+    <t>سيتي مول, طريق...</t>
+  </si>
+  <si>
+    <t>2510 الامام مح...</t>
+  </si>
+  <si>
+    <t>Galleria Mall،...</t>
+  </si>
+  <si>
+    <t>4481، 7756 قصر...</t>
+  </si>
+  <si>
+    <t>JPQ9+6RR، شارع...</t>
+  </si>
+  <si>
+    <t>حي الرمال، RUR...</t>
+  </si>
+  <si>
+    <t>مدائن الفهد، 6...</t>
+  </si>
+  <si>
+    <t>8P4J+8WQ، العر...</t>
+  </si>
+  <si>
+    <t>RV5P+Q47، البر...</t>
+  </si>
+  <si>
+    <t>بارك مول، شارع...</t>
+  </si>
+  <si>
+    <t>RASHID MALL, ا...</t>
+  </si>
+  <si>
+    <t>النخيل مول، ال...</t>
+  </si>
+  <si>
+    <t>7174، 3615، حي...</t>
+  </si>
+  <si>
+    <t>شارع الملك خال...</t>
+  </si>
+  <si>
+    <t>حي الصفا، شارع...</t>
+  </si>
+  <si>
+    <t>MPWH+7QX، المل...</t>
+  </si>
+  <si>
+    <t>8Q58+PFQ، طريق...</t>
+  </si>
+  <si>
+    <t>84WP+W3W، حي ا...</t>
+  </si>
+  <si>
+    <t>الاعشى، سكيرين...</t>
+  </si>
+  <si>
+    <t>جازان 24221، ا...</t>
+  </si>
+  <si>
+    <t>6546 الشهاب ال...</t>
+  </si>
+  <si>
+    <t>Prince Sultan ...</t>
+  </si>
+  <si>
+    <t>حي الجردة، 389...</t>
+  </si>
+  <si>
+    <t>ال ثنيان، ظهرة...</t>
+  </si>
+  <si>
+    <t>3337 الملك خال...</t>
+  </si>
+  <si>
+    <t>U walk, Gate 2...</t>
+  </si>
+  <si>
+    <t>المغيسلة، المد...</t>
+  </si>
+  <si>
+    <t>اليرموك، الريا...</t>
+  </si>
+  <si>
+    <t>3337، 8799 333...</t>
+  </si>
+  <si>
+    <t>8XHF+77G، طريق...</t>
+  </si>
+  <si>
+    <t>3137، جازان 82...</t>
+  </si>
+  <si>
+    <t>4355 المدينة ا...</t>
+  </si>
+  <si>
+    <t>طريق عائشه، ال...</t>
+  </si>
+  <si>
+    <t>الشارع العام، ...</t>
+  </si>
+  <si>
+    <t>حي، طريق الملك...</t>
+  </si>
+  <si>
+    <t>G2XP+C8H، الخا...</t>
+  </si>
+  <si>
+    <t>6883 المدينة ا...</t>
+  </si>
+  <si>
+    <t>شارع حراء، الن...</t>
+  </si>
+  <si>
+    <t>HJVJ+XW9، ظهرة...</t>
+  </si>
+  <si>
+    <t>25MV+J6F road ...</t>
+  </si>
+  <si>
+    <t>C3JW+WHR, شارع...</t>
+  </si>
+  <si>
+    <t>3XWP+R26، الشر...</t>
+  </si>
+  <si>
+    <t>6879 طريق المل...</t>
+  </si>
+  <si>
+    <t>JP56+85W، شارع...</t>
+  </si>
+  <si>
+    <t>8XJC+6MM، طريق...</t>
+  </si>
+  <si>
+    <t>GLGA2252، 2252...</t>
+  </si>
+  <si>
+    <t>Prince Mohamme...</t>
+  </si>
+  <si>
+    <t>ابي الاسود الد...</t>
+  </si>
+  <si>
+    <t>السلام، سيهات‎...</t>
+  </si>
+  <si>
+    <t>4914 طريق المد...</t>
+  </si>
+  <si>
+    <t>PARK AVENUE, ا...</t>
+  </si>
+  <si>
+    <t>الوادي، 6217،،...</t>
+  </si>
+  <si>
+    <t>King Fahad Roa...</t>
+  </si>
+  <si>
+    <t>76J7+C84، شارع...</t>
+  </si>
+  <si>
+    <t>76P7+FM2، شارع...</t>
+  </si>
+  <si>
+    <t>المنار، جدة 23...</t>
+  </si>
+  <si>
+    <t>CFVM+WFR، حي ا...</t>
+  </si>
+  <si>
+    <t>Khalid bin Wal...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>7399 حي الاجاو...</t>
+  </si>
+  <si>
+    <t>العثيم مول, طر...</t>
+  </si>
+  <si>
+    <t>النجاح، طريق ا...</t>
+  </si>
+  <si>
+    <t>CFQM+P4H، طريق...</t>
+  </si>
+  <si>
+    <t>CH2H+275، طريق...</t>
+  </si>
+  <si>
+    <t>District، Al-S...</t>
+  </si>
+  <si>
+    <t>حي، شارع النجا...</t>
+  </si>
+  <si>
+    <t>المهاجر بن أبي...</t>
+  </si>
+  <si>
+    <t>75GR+2VM، الثق...</t>
+  </si>
+  <si>
+    <t>3063 الترمذي، ...</t>
+  </si>
+  <si>
+    <t>سنتر بوينت، Gr...</t>
+  </si>
+  <si>
+    <t>حي, 3068 ابى ع...</t>
+  </si>
+  <si>
+    <t>سوق عيال ناصر ...</t>
+  </si>
+  <si>
+    <t>X695+RPM، المط...</t>
+  </si>
+  <si>
+    <t>REMA3826، 7903...</t>
+  </si>
+  <si>
+    <t>الحمدانية،، ال...</t>
+  </si>
+  <si>
+    <t>G5PG+JQ4، الحم...</t>
+  </si>
+  <si>
+    <t>ممشى، شارع فاط...</t>
+  </si>
+  <si>
+    <t>FJ36+V7W، الجم...</t>
+  </si>
+  <si>
+    <t>3XRH+2H4، شارع...</t>
+  </si>
+  <si>
+    <t>خالد بن الوليد...</t>
+  </si>
+  <si>
+    <t>X2PF+R47، طريق...</t>
+  </si>
+  <si>
+    <t>HJVX+2XH، عائش...</t>
+  </si>
+  <si>
+    <t>مجمع الدخيل خل...</t>
+  </si>
+  <si>
+    <t>6281، العمران ...</t>
+  </si>
+  <si>
+    <t>JPP9+639, البط...</t>
+  </si>
+  <si>
+    <t>شارع، الوزارات...</t>
+  </si>
+  <si>
+    <t>3284 الليات، ح...</t>
+  </si>
+  <si>
+    <t>8252 طريق المل...</t>
+  </si>
+  <si>
+    <t>الصفا، تبوك 47...</t>
+  </si>
+  <si>
+    <t>حي, 6862 حافظ ...</t>
+  </si>
+  <si>
+    <t>CV4C+3P9 محل ش...</t>
+  </si>
+  <si>
+    <t>ابن عبدالرحمن ...</t>
+  </si>
+  <si>
+    <t>9HM6+PG6، الام...</t>
+  </si>
+  <si>
+    <t>Slam ben، شارع...</t>
+  </si>
+  <si>
+    <t>7C57+CHQ، النز...</t>
+  </si>
+  <si>
+    <t>اليرموك، الخبر...</t>
+  </si>
+  <si>
+    <t>QMHJ+QPR، نهر ...</t>
+  </si>
+  <si>
+    <t>+9668003043113...</t>
   </si>
   <si>
     <t>+966550128612</t>
@@ -1183,7 +886,7 @@
     <t>+966562255015</t>
   </si>
   <si>
-    <t>+9668002444404</t>
+    <t>+9668002444404...</t>
   </si>
   <si>
     <t>+966503329540</t>
@@ -1243,7 +946,7 @@
     <t>+966545156713</t>
   </si>
   <si>
-    <t>+9668003015000</t>
+    <t>+9668003015000...</t>
   </si>
   <si>
     <t>+966502417280</t>
@@ -1339,61 +1042,58 @@
     <t>+966583385366</t>
   </si>
   <si>
-    <t>http://www.redtagfashion.com/</t>
-  </si>
-  <si>
-    <t>https://www.appareluae.com/skechers/</t>
-  </si>
-  <si>
-    <t>https://en-sa.crocsgulf.com/</t>
-  </si>
-  <si>
-    <t>https://www.marksandspencer.com/sa/</t>
-  </si>
-  <si>
-    <t>https://www.femi9.com/</t>
-  </si>
-  <si>
-    <t>https://www.maxfashion.com/sa/ar/</t>
-  </si>
-  <si>
-    <t>http://shop.adidas.com.sa/</t>
-  </si>
-  <si>
-    <t>https://www.stradivarius.com/sa/?utm_campaign=googlemaps&amp;utm_content=9893&amp;utm_medium=businessprofile&amp;utm_source=google&amp;utm_term=cdbfb102-e9f6-4cb0-88d0-0d0e9534dbcb</t>
-  </si>
-  <si>
-    <t>http://lefties.com/</t>
-  </si>
-  <si>
-    <t>https://ar-sa.6thstreet.com/</t>
-  </si>
-  <si>
-    <t>http://www.maxstores.com/?utm_source=google&amp;utm_campaign=local_search&amp;utm_medium=organic</t>
-  </si>
-  <si>
-    <t>https://www.lcwaikiki.sa/</t>
-  </si>
-  <si>
-    <t>https://www.womensecret.sa/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dawry16222/</t>
-  </si>
-  <si>
-    <t>https://www.eliesaab.com/</t>
-  </si>
-  <si>
-    <t>http://fdeshdashti.com/</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/sa/</t>
-  </si>
-  <si>
-    <t>https://alkhialh.com.sa/</t>
-  </si>
-  <si>
-    <t>https://designsocietyonline.com/</t>
+    <t>http://www.red...</t>
+  </si>
+  <si>
+    <t>https://www.ap...</t>
+  </si>
+  <si>
+    <t>https://en-sa....</t>
+  </si>
+  <si>
+    <t>https://www.ma...</t>
+  </si>
+  <si>
+    <t>https://www.fe...</t>
+  </si>
+  <si>
+    <t>http://shop.ad...</t>
+  </si>
+  <si>
+    <t>https://www.st...</t>
+  </si>
+  <si>
+    <t>http://lefties...</t>
+  </si>
+  <si>
+    <t>https://ar-sa....</t>
+  </si>
+  <si>
+    <t>http://www.max...</t>
+  </si>
+  <si>
+    <t>https://www.lc...</t>
+  </si>
+  <si>
+    <t>https://www.wo...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>https://www.el...</t>
+  </si>
+  <si>
+    <t>http://fdeshda...</t>
+  </si>
+  <si>
+    <t>https://www.za...</t>
+  </si>
+  <si>
+    <t>https://alkhia...</t>
+  </si>
+  <si>
+    <t>https://design...</t>
   </si>
 </sst>
 </file>
@@ -1801,2122 +1501,2122 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" t="s">
-        <v>221</v>
-      </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
         <v>215</v>
       </c>
-      <c r="D38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" t="s">
-        <v>314</v>
-      </c>
       <c r="G38" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="G45" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="G52" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="G54" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" t="s">
-        <v>260</v>
-      </c>
       <c r="F55" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="G55" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="G56" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" t="s">
-        <v>262</v>
-      </c>
       <c r="F58" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
-        <v>166</v>
-      </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
-        <v>169</v>
-      </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F64" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>171</v>
-      </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>455</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
-        <v>174</v>
-      </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="G70" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="G71" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="G72" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="F73" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="G74" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="G76" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F77" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="G77" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>183</v>
-      </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="F79" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="G79" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="G80" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>187</v>
-      </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="F83" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="G83" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="G84" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F85" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
-        <v>191</v>
-      </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="G86" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="G87" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
-        <v>194</v>
-      </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
-        <v>195</v>
-      </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="G90" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
-        <v>196</v>
-      </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="G91" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F92" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="G92" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>198</v>
-      </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>199</v>
-      </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F94" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
-        <v>200</v>
-      </c>
       <c r="C95" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F95" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
-        <v>201</v>
-      </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E96" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>458</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
-        <v>202</v>
-      </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="G97" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
-        <v>203</v>
-      </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="G98" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E99" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F99" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D100" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F100" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="G100" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="F101" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="G101" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
